--- a/public/comprastiempos.xlsx
+++ b/public/comprastiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDWARD\Documents\GitHub\panificadora\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A4910B-C6FE-40E1-BC5D-0FDE34ADBBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A720A5E-6C12-428F-9F56-B3286CE8840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -146,6 +146,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,47 +1816,27 @@
       <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1">
-        <v>45615</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0.35019675925925925</v>
-      </c>
-      <c r="D79" s="5">
-        <v>0.3503472222222222</v>
-      </c>
-      <c r="E79" s="13">
-        <v>13</v>
-      </c>
+      <c r="A79" s="14"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1">
-        <v>45615</v>
-      </c>
-      <c r="C80" s="2">
-        <v>0.3757523148148148</v>
-      </c>
-      <c r="D80" s="5">
-        <v>0.37593749999999998</v>
-      </c>
-      <c r="E80" s="13">
-        <v>16</v>
-      </c>
+      <c r="A80" s="14"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
